--- a/va_facility_data_2025-02-20/Pointe Centre VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Pointe%20Centre%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Pointe Centre VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Pointe%20Centre%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R74434545ea364c2ea07fa492a663a6f5"/>
-    <x:sheet name="Outpatient Score" sheetId="2" r:id="R98cf0de790a842589aaa827f9d44dc26"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R227415391ff64889922b24bdbdd3a5b1"/>
+    <x:sheet name="Outpatient Score" sheetId="2" r:id="R7551fdea692e4beea139f93b06721ffe"/>
   </x:sheets>
 </x:workbook>
 </file>
